--- a/Rob Fahrner Papers.xlsx
+++ b/Rob Fahrner Papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/fahrnr01_pfizer_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A13617-6C75-4A56-ADBB-30BF8565AF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA553DA-774D-48B9-932C-B4B21BB6B2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="citations (1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>Authors</t>
   </si>
@@ -269,12 +269,24 @@
   </si>
   <si>
     <t>2115-2121</t>
+  </si>
+  <si>
+    <t>A modular approach for the ultra-scale-down of depth filtration</t>
+  </si>
+  <si>
+    <t>Aaron Noyes, Jonida Basha, John Frostad, Scott Cook, Doug Millard, Jim Mullin, Daniel LaCasse, Richard S Wright, Benjamin Huffman, Robert Fahrner, Ranga Godavarti, Nigel Titchener-Hooker, Khurram Sunasara, Tarit Mukhopadhyay</t>
+  </si>
+  <si>
+    <t>Journal of Membrane Science</t>
+  </si>
+  <si>
+    <t>199-210</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,9 +826,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -854,7 +866,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -960,7 +972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1102,18 +1114,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1636,6 +1648,29 @@
         <v>26</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>496</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21">
+        <v>2015</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
